--- a/biology/Zoologie/Calospila_thara/Calospila_thara.xlsx
+++ b/biology/Zoologie/Calospila_thara/Calospila_thara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila thara est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Calospila.
 </t>
@@ -511,13 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Calospila thara a été décrit par William Chapman Hewitson en 1858 sous le nom de Lemonias thara[1].
-Sous-espèces
-Calospila thara thara présent au Brésil.
-Calospila thara nomia (Godman, 1903); présent en Guyane, en Guyana
-Calospila thara pulchra (Lathy, 1904); présent  en  Équateur et au Pérou</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila thara a été décrit par William Chapman Hewitson en 1858 sous le nom de Lemonias thara.
+</t>
         </is>
       </c>
     </row>
@@ -542,10 +553,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Calospila thara thara présent au Brésil.
+Calospila thara nomia (Godman, 1903); présent en Guyane, en Guyana
+Calospila thara pulchra (Lathy, 1904); présent  en  Équateur et au Pérou</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Calospila_thara</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_thara</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila thara thara est un papillon bleu avec une partie basale orange minime aux antérieures, très large aux postérieures ne laissant qu'une bande marginale bleue ornée d'une ligne submarginale de points noirs. Les ailes antérieures ont une ornementation noire pour l'apex et de marques noires forment des lignes dans la partie basale.
 Calospila thara nomia est bleu avec juste une bande anale orange aux postérieure avec une ornementation de lignes de taches noires parallèle à celle submarginale.
@@ -554,32 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Calospila_thara</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Calospila_thara</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -601,16 +626,116 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calospila_thara</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_thara</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calospila thara est présent dans le nord de l'Amérique du Sud, en Guyane, en Guyana,  au Surinam, au Brésil, en  Équateur et au Pérou[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila thara est présent dans le nord de l'Amérique du Sud, en Guyane, en Guyana,  au Surinam, au Brésil, en  Équateur et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calospila_thara</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_thara</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calospila_thara</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_thara</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
